--- a/parsing_data/parser_price_example.xlsx
+++ b/parsing_data/parser_price_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intellij_projects\freelance\wildberries_parser_1\parser_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intellij_projects\freelance\wildberries_parser_1\parsing_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7EDCC8-86F5-4012-B9AC-74750B3A2802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B89F1B0-90BA-4EF3-ADDF-4991C2C6C035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="900" windowWidth="22185" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>артикул</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>название_1</t>
-  </si>
-  <si>
-    <t>предмет</t>
-  </si>
-  <si>
-    <t>категория_1</t>
   </si>
 </sst>
 </file>
@@ -365,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,27 +370,21 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>133412327</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
